--- a/trunk/src/ontology/stat_terms.xlsx
+++ b/trunk/src/ontology/stat_terms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24795" windowHeight="12270"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12615" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="stat" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="833">
   <si>
     <t>Name</t>
   </si>
@@ -1618,12 +1618,6 @@
     <t>http://purl.obolibrary.org/obo/STATO_0000187</t>
   </si>
   <si>
-    <t xml:space="preserve"> probability of the event occuring divided by the probability of an event not occurring.</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/STATO_0000188</t>
-  </si>
-  <si>
     <t>mixed model</t>
   </si>
   <si>
@@ -2519,12 +2513,6 @@
   </si>
   <si>
     <t>A z-score (also known as z-value, standard score, or normal score) is a measure of the divergence of an individual experimental result from the most probable result, the mean. Z is expressed in terms of the number of standard deviations from the mean value.</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#topObjectProperty</t>
-  </si>
-  <si>
-    <t>topObjectProperty</t>
   </si>
 </sst>
 </file>
@@ -3017,9 +3005,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3355,15 +3345,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="A229" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.28515625" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" customWidth="1"/>
@@ -3385,24 +3375,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B2" t="s">
         <v>708</v>
       </c>
-      <c r="B2" t="s">
-        <v>710</v>
-      </c>
       <c r="D2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B3" t="s">
         <v>822</v>
       </c>
-      <c r="B3" t="s">
-        <v>824</v>
-      </c>
       <c r="D3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3440,16 +3430,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C7" t="s">
         <v>611</v>
       </c>
-      <c r="B7" t="s">
-        <v>614</v>
-      </c>
-      <c r="C7" t="s">
-        <v>613</v>
-      </c>
       <c r="D7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3465,16 +3455,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B9" t="s">
+        <v>666</v>
+      </c>
+      <c r="C9" t="s">
         <v>665</v>
       </c>
-      <c r="B9" t="s">
-        <v>668</v>
-      </c>
-      <c r="C9" t="s">
-        <v>667</v>
-      </c>
       <c r="D9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3537,24 +3527,24 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>738</v>
+      </c>
+      <c r="B15" t="s">
         <v>740</v>
       </c>
-      <c r="B15" t="s">
-        <v>742</v>
-      </c>
       <c r="D15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>591</v>
+      </c>
+      <c r="B16" t="s">
         <v>593</v>
       </c>
-      <c r="B16" t="s">
-        <v>595</v>
-      </c>
       <c r="D16" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3592,13 +3582,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>594</v>
+      </c>
+      <c r="B20" t="s">
         <v>596</v>
       </c>
-      <c r="B20" t="s">
-        <v>598</v>
-      </c>
       <c r="D20" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3671,13 +3661,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>775</v>
+      </c>
+      <c r="B28" t="s">
         <v>777</v>
       </c>
-      <c r="B28" t="s">
-        <v>779</v>
-      </c>
       <c r="D28" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3704,13 +3694,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>761</v>
+      </c>
+      <c r="B31" t="s">
         <v>763</v>
       </c>
-      <c r="B31" t="s">
-        <v>765</v>
-      </c>
       <c r="D31" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3726,24 +3716,24 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>741</v>
+      </c>
+      <c r="B33" t="s">
         <v>743</v>
       </c>
-      <c r="B33" t="s">
-        <v>745</v>
-      </c>
       <c r="D33" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>813</v>
+      </c>
+      <c r="B34" t="s">
         <v>815</v>
       </c>
-      <c r="B34" t="s">
-        <v>817</v>
-      </c>
       <c r="D34" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3758,14 +3748,14 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B36" t="s">
         <v>806</v>
       </c>
-      <c r="B36" t="s">
-        <v>808</v>
-      </c>
       <c r="D36" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3789,30 +3779,30 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>719</v>
+      </c>
+      <c r="B39" t="s">
+        <v>722</v>
+      </c>
+      <c r="C39" t="s">
         <v>721</v>
       </c>
-      <c r="B39" t="s">
-        <v>724</v>
-      </c>
-      <c r="C39" t="s">
-        <v>723</v>
-      </c>
       <c r="D39" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>702</v>
+      </c>
+      <c r="B40" t="s">
+        <v>705</v>
+      </c>
+      <c r="C40" t="s">
         <v>704</v>
       </c>
-      <c r="B40" t="s">
-        <v>707</v>
-      </c>
-      <c r="C40" t="s">
-        <v>706</v>
-      </c>
       <c r="D40" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3835,7 +3825,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B43" t="s">
@@ -3843,7 +3833,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
@@ -3855,28 +3845,28 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>543</v>
+      </c>
+      <c r="B45" t="s">
         <v>545</v>
       </c>
-      <c r="B45" t="s">
-        <v>547</v>
-      </c>
       <c r="D45" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>549</v>
+      </c>
+      <c r="B46" t="s">
         <v>551</v>
       </c>
-      <c r="B46" t="s">
-        <v>553</v>
-      </c>
       <c r="D46" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B47" t="s">
@@ -3896,46 +3886,46 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>731</v>
+      </c>
+      <c r="B49" t="s">
+        <v>734</v>
+      </c>
+      <c r="C49" t="s">
         <v>733</v>
       </c>
-      <c r="B49" t="s">
-        <v>736</v>
-      </c>
-      <c r="C49" t="s">
-        <v>735</v>
-      </c>
       <c r="D49" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>597</v>
+      </c>
+      <c r="B50" t="s">
         <v>599</v>
       </c>
-      <c r="B50" t="s">
-        <v>601</v>
-      </c>
       <c r="D50" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B51" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B52" t="s">
         <v>658</v>
       </c>
-      <c r="B52" t="s">
-        <v>660</v>
-      </c>
       <c r="D52" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4000,36 +3990,36 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B58" t="s">
         <v>681</v>
       </c>
-      <c r="B58" t="s">
-        <v>683</v>
-      </c>
       <c r="D58" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
+        <v>576</v>
+      </c>
+      <c r="B59" t="s">
         <v>578</v>
       </c>
-      <c r="B59" t="s">
-        <v>580</v>
-      </c>
       <c r="D59" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B60" t="s">
         <v>557</v>
       </c>
-      <c r="B60" t="s">
-        <v>559</v>
-      </c>
       <c r="D60" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4055,7 +4045,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B63" t="s">
@@ -4066,25 +4056,25 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B64" t="s">
         <v>730</v>
       </c>
-      <c r="B64" t="s">
-        <v>732</v>
-      </c>
       <c r="D64" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
+        <v>606</v>
+      </c>
+      <c r="B65" t="s">
         <v>608</v>
       </c>
-      <c r="B65" t="s">
-        <v>610</v>
-      </c>
       <c r="D65" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4179,13 +4169,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>723</v>
+      </c>
+      <c r="B75" t="s">
         <v>725</v>
       </c>
-      <c r="B75" t="s">
-        <v>727</v>
-      </c>
       <c r="D75" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4201,16 +4191,16 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
+        <v>644</v>
+      </c>
+      <c r="B77" t="s">
+        <v>647</v>
+      </c>
+      <c r="C77" t="s">
         <v>646</v>
       </c>
-      <c r="B77" t="s">
-        <v>649</v>
-      </c>
-      <c r="C77" t="s">
-        <v>648</v>
-      </c>
       <c r="D77" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4222,17 +4212,17 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B79" t="s">
+        <v>662</v>
+      </c>
+      <c r="C79" t="s">
         <v>661</v>
       </c>
-      <c r="B79" t="s">
-        <v>664</v>
-      </c>
-      <c r="C79" t="s">
-        <v>663</v>
-      </c>
       <c r="D79" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4256,41 +4246,41 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
+        <v>771</v>
+      </c>
+      <c r="B82" t="s">
+        <v>774</v>
+      </c>
+      <c r="C82" t="s">
         <v>773</v>
       </c>
-      <c r="B82" t="s">
-        <v>776</v>
-      </c>
-      <c r="C82" t="s">
-        <v>775</v>
-      </c>
       <c r="D82" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
+        <v>767</v>
+      </c>
+      <c r="B83" t="s">
+        <v>770</v>
+      </c>
+      <c r="C83" t="s">
         <v>769</v>
       </c>
-      <c r="B83" t="s">
-        <v>772</v>
-      </c>
-      <c r="C83" t="s">
-        <v>771</v>
-      </c>
       <c r="D83" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
+        <v>627</v>
+      </c>
+      <c r="B84" t="s">
         <v>629</v>
       </c>
-      <c r="B84" t="s">
-        <v>631</v>
-      </c>
       <c r="D84" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4306,24 +4296,24 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B86" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B87" t="s">
+        <v>582</v>
+      </c>
+      <c r="C87" t="s">
         <v>581</v>
       </c>
-      <c r="B87" t="s">
-        <v>584</v>
-      </c>
-      <c r="C87" t="s">
-        <v>583</v>
-      </c>
       <c r="D87" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4405,17 +4395,17 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
+        <v>823</v>
+      </c>
+      <c r="B95" t="s">
         <v>825</v>
       </c>
-      <c r="B95" t="s">
-        <v>827</v>
-      </c>
       <c r="D95" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" t="s">
+      <c r="A96" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B96" t="s">
@@ -4427,13 +4417,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
+        <v>786</v>
+      </c>
+      <c r="B97" t="s">
         <v>788</v>
       </c>
-      <c r="B97" t="s">
-        <v>790</v>
-      </c>
       <c r="D97" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4449,32 +4439,32 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
+        <v>764</v>
+      </c>
+      <c r="B99" t="s">
         <v>766</v>
       </c>
-      <c r="B99" t="s">
-        <v>768</v>
-      </c>
       <c r="D99" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" t="s">
+      <c r="A100" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B100" t="s">
         <v>782</v>
       </c>
-      <c r="B100" t="s">
-        <v>784</v>
-      </c>
       <c r="D100" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B101" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4504,13 +4494,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
+        <v>558</v>
+      </c>
+      <c r="B104" t="s">
         <v>560</v>
       </c>
-      <c r="B104" t="s">
-        <v>562</v>
-      </c>
       <c r="D104" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4536,57 +4526,57 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B107" t="s">
         <v>542</v>
       </c>
-      <c r="B107" t="s">
-        <v>544</v>
-      </c>
       <c r="D107" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
+        <v>638</v>
+      </c>
+      <c r="B108" t="s">
         <v>640</v>
       </c>
-      <c r="B108" t="s">
-        <v>642</v>
-      </c>
       <c r="D108" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B109" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B110" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B111" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B112" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4613,10 +4603,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B115" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4637,38 +4627,38 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
+        <v>688</v>
+      </c>
+      <c r="B118" t="s">
+        <v>691</v>
+      </c>
+      <c r="D118" t="s">
         <v>690</v>
-      </c>
-      <c r="B118" t="s">
-        <v>693</v>
-      </c>
-      <c r="D118" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
+        <v>686</v>
+      </c>
+      <c r="B119" t="s">
+        <v>689</v>
+      </c>
+      <c r="C119" t="s">
         <v>688</v>
       </c>
-      <c r="B119" t="s">
-        <v>691</v>
-      </c>
-      <c r="C119" t="s">
-        <v>690</v>
-      </c>
       <c r="D119" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
+        <v>807</v>
+      </c>
+      <c r="B120" t="s">
         <v>809</v>
       </c>
-      <c r="B120" t="s">
-        <v>811</v>
-      </c>
       <c r="D120" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4761,10 +4751,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B129" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4777,20 +4767,20 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
+        <v>692</v>
+      </c>
+      <c r="B131" t="s">
+        <v>695</v>
+      </c>
+      <c r="C131" t="s">
         <v>694</v>
       </c>
-      <c r="B131" t="s">
-        <v>697</v>
-      </c>
-      <c r="C131" t="s">
-        <v>696</v>
-      </c>
       <c r="D131" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" t="s">
+      <c r="A132" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B132" t="s">
@@ -4848,7 +4838,7 @@
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" t="s">
+      <c r="A137" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B137" t="s">
@@ -4896,17 +4886,17 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
+        <v>744</v>
+      </c>
+      <c r="B141" t="s">
         <v>746</v>
       </c>
-      <c r="B141" t="s">
-        <v>748</v>
-      </c>
       <c r="D141" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" t="s">
+      <c r="A142" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B142" t="s">
@@ -4929,13 +4919,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
+        <v>563</v>
+      </c>
+      <c r="B144" t="s">
         <v>565</v>
       </c>
-      <c r="B144" t="s">
-        <v>567</v>
-      </c>
       <c r="D144" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4984,13 +4974,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
+        <v>792</v>
+      </c>
+      <c r="B149" t="s">
         <v>794</v>
       </c>
-      <c r="B149" t="s">
-        <v>796</v>
-      </c>
       <c r="D149" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5005,18 +4995,18 @@
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>536</v>
+      <c r="A151" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="B151" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D151" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" t="s">
+      <c r="A152" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B152" t="s">
@@ -5028,13 +5018,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
+        <v>621</v>
+      </c>
+      <c r="B153" t="s">
         <v>623</v>
       </c>
-      <c r="B153" t="s">
-        <v>625</v>
-      </c>
       <c r="D153" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5110,49 +5100,49 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
+        <v>826</v>
+      </c>
+      <c r="B161" t="s">
+        <v>829</v>
+      </c>
+      <c r="C161" t="s">
         <v>828</v>
       </c>
-      <c r="B161" t="s">
-        <v>831</v>
-      </c>
-      <c r="C161" t="s">
-        <v>830</v>
-      </c>
       <c r="D161" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
+        <v>758</v>
+      </c>
+      <c r="B162" t="s">
         <v>760</v>
       </c>
-      <c r="B162" t="s">
-        <v>762</v>
-      </c>
       <c r="D162" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B163" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
+        <v>648</v>
+      </c>
+      <c r="B164" t="s">
+        <v>651</v>
+      </c>
+      <c r="C164" t="s">
         <v>650</v>
       </c>
-      <c r="B164" t="s">
-        <v>653</v>
-      </c>
-      <c r="C164" t="s">
-        <v>652</v>
-      </c>
       <c r="D164" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5190,28 +5180,28 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
+        <v>552</v>
+      </c>
+      <c r="B168" t="s">
         <v>554</v>
       </c>
-      <c r="B168" t="s">
-        <v>556</v>
-      </c>
       <c r="D168" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
+        <v>667</v>
+      </c>
+      <c r="B169" t="s">
         <v>669</v>
       </c>
-      <c r="B169" t="s">
-        <v>671</v>
-      </c>
       <c r="D169" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" t="s">
+      <c r="A170" s="2" t="s">
         <v>517</v>
       </c>
       <c r="B170" t="s">
@@ -5223,1237 +5213,1218 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>517</v>
+        <v>600</v>
       </c>
       <c r="B171" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="D171" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>602</v>
+        <v>716</v>
       </c>
       <c r="B172" t="s">
-        <v>604</v>
+        <v>718</v>
       </c>
       <c r="D172" t="s">
-        <v>603</v>
+        <v>717</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>718</v>
+        <v>54</v>
       </c>
       <c r="B173" t="s">
-        <v>720</v>
+        <v>56</v>
       </c>
       <c r="D173" t="s">
-        <v>719</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B174" t="s">
-        <v>56</v>
-      </c>
-      <c r="D174" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>64</v>
+        <v>435</v>
       </c>
       <c r="B175" t="s">
-        <v>65</v>
+        <v>436</v>
+      </c>
+      <c r="D175" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>435</v>
+        <v>115</v>
       </c>
       <c r="B176" t="s">
-        <v>436</v>
+        <v>118</v>
+      </c>
+      <c r="C176" t="s">
+        <v>117</v>
       </c>
       <c r="D176" t="s">
-        <v>282</v>
+        <v>116</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>115</v>
+        <v>613</v>
       </c>
       <c r="B177" t="s">
-        <v>118</v>
-      </c>
-      <c r="C177" t="s">
-        <v>117</v>
+        <v>615</v>
       </c>
       <c r="D177" t="s">
-        <v>116</v>
+        <v>614</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>615</v>
+        <v>652</v>
       </c>
       <c r="B178" t="s">
-        <v>617</v>
+        <v>655</v>
+      </c>
+      <c r="C178" t="s">
+        <v>654</v>
       </c>
       <c r="D178" t="s">
-        <v>616</v>
+        <v>653</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>654</v>
+      <c r="A179" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B179" t="s">
-        <v>657</v>
-      </c>
-      <c r="C179" t="s">
-        <v>656</v>
+        <v>94</v>
       </c>
       <c r="D179" t="s">
-        <v>655</v>
+        <v>93</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>92</v>
+        <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="D180" t="s">
-        <v>93</v>
+        <v>273</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>272</v>
+        <v>810</v>
       </c>
       <c r="B181" t="s">
-        <v>274</v>
+        <v>812</v>
       </c>
       <c r="D181" t="s">
-        <v>273</v>
+        <v>811</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>812</v>
+        <v>229</v>
       </c>
       <c r="B182" t="s">
-        <v>814</v>
-      </c>
-      <c r="D182" t="s">
-        <v>813</v>
+        <v>231</v>
+      </c>
+      <c r="C182" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>229</v>
+        <v>816</v>
       </c>
       <c r="B183" t="s">
-        <v>231</v>
+        <v>819</v>
       </c>
       <c r="C183" t="s">
-        <v>230</v>
+        <v>818</v>
+      </c>
+      <c r="D183" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>818</v>
+        <v>342</v>
       </c>
       <c r="B184" t="s">
-        <v>821</v>
-      </c>
-      <c r="C184" t="s">
-        <v>820</v>
+        <v>344</v>
       </c>
       <c r="D184" t="s">
-        <v>819</v>
+        <v>343</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>342</v>
+        <v>789</v>
       </c>
       <c r="B185" t="s">
-        <v>344</v>
+        <v>791</v>
       </c>
       <c r="D185" t="s">
-        <v>343</v>
+        <v>790</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>791</v>
+        <v>466</v>
       </c>
       <c r="B186" t="s">
-        <v>793</v>
-      </c>
-      <c r="D186" t="s">
-        <v>792</v>
+        <v>467</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" t="s">
-        <v>466</v>
+      <c r="A187" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B187" t="s">
-        <v>467</v>
+        <v>140</v>
+      </c>
+      <c r="D187" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="B188" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D188" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>38</v>
+        <v>783</v>
       </c>
       <c r="B189" t="s">
-        <v>40</v>
+        <v>785</v>
       </c>
       <c r="D189" t="s">
-        <v>39</v>
+        <v>784</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>785</v>
+        <v>248</v>
       </c>
       <c r="B190" t="s">
-        <v>787</v>
+        <v>250</v>
       </c>
       <c r="D190" t="s">
-        <v>786</v>
+        <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="B191" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="D191" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>275</v>
+        <v>373</v>
       </c>
       <c r="B192" t="s">
-        <v>277</v>
+        <v>376</v>
+      </c>
+      <c r="C192" t="s">
+        <v>375</v>
       </c>
       <c r="D192" t="s">
-        <v>276</v>
+        <v>374</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>373</v>
+        <v>449</v>
       </c>
       <c r="B193" t="s">
-        <v>376</v>
-      </c>
-      <c r="C193" t="s">
-        <v>375</v>
-      </c>
-      <c r="D193" t="s">
-        <v>374</v>
+        <v>450</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="B194" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>414</v>
+      <c r="A195" s="2" t="s">
+        <v>641</v>
       </c>
       <c r="B195" t="s">
-        <v>415</v>
+        <v>643</v>
+      </c>
+      <c r="D195" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>643</v>
+        <v>297</v>
       </c>
       <c r="B196" t="s">
-        <v>645</v>
+        <v>299</v>
       </c>
       <c r="D196" t="s">
-        <v>644</v>
+        <v>298</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>297</v>
+        <v>696</v>
       </c>
       <c r="B197" t="s">
-        <v>299</v>
+        <v>698</v>
       </c>
       <c r="D197" t="s">
-        <v>298</v>
+        <v>697</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>698</v>
+        <v>432</v>
       </c>
       <c r="B198" t="s">
-        <v>700</v>
+        <v>434</v>
       </c>
       <c r="D198" t="s">
-        <v>699</v>
+        <v>433</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>432</v>
+        <v>345</v>
       </c>
       <c r="B199" t="s">
-        <v>434</v>
+        <v>347</v>
       </c>
       <c r="D199" t="s">
-        <v>433</v>
+        <v>346</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" t="s">
-        <v>345</v>
+      <c r="A200" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="B200" t="s">
-        <v>347</v>
+        <v>286</v>
+      </c>
+      <c r="C200" t="s">
+        <v>285</v>
       </c>
       <c r="D200" t="s">
-        <v>346</v>
+        <v>233</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" t="s">
-        <v>284</v>
+      <c r="A201" s="2" t="s">
+        <v>630</v>
       </c>
       <c r="B201" t="s">
-        <v>286</v>
+        <v>633</v>
       </c>
       <c r="C201" t="s">
-        <v>285</v>
+        <v>632</v>
       </c>
       <c r="D201" t="s">
-        <v>233</v>
+        <v>631</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" t="s">
-        <v>632</v>
+      <c r="A202" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B202" t="s">
-        <v>635</v>
-      </c>
-      <c r="C202" t="s">
-        <v>634</v>
+        <v>91</v>
       </c>
       <c r="D202" t="s">
-        <v>633</v>
+        <v>90</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>89</v>
+        <v>330</v>
       </c>
       <c r="B203" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="D203" t="s">
-        <v>90</v>
+        <v>331</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>332</v>
+        <v>213</v>
       </c>
       <c r="D204" t="s">
-        <v>331</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>211</v>
+        <v>523</v>
       </c>
       <c r="B205" t="s">
-        <v>213</v>
-      </c>
-      <c r="D205" t="s">
-        <v>212</v>
+        <v>524</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>523</v>
+        <v>199</v>
       </c>
       <c r="B206" t="s">
-        <v>524</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>199</v>
+        <v>585</v>
       </c>
       <c r="B207" t="s">
-        <v>200</v>
+        <v>588</v>
+      </c>
+      <c r="C207" t="s">
+        <v>587</v>
+      </c>
+      <c r="D207" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>587</v>
+        <v>474</v>
       </c>
       <c r="B208" t="s">
-        <v>590</v>
-      </c>
-      <c r="C208" t="s">
-        <v>589</v>
+        <v>476</v>
       </c>
       <c r="D208" t="s">
-        <v>588</v>
+        <v>475</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>474</v>
+        <v>797</v>
       </c>
       <c r="B209" t="s">
-        <v>476</v>
+        <v>799</v>
       </c>
       <c r="D209" t="s">
-        <v>475</v>
+        <v>798</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>799</v>
+        <v>709</v>
       </c>
       <c r="B210" t="s">
-        <v>801</v>
+        <v>712</v>
+      </c>
+      <c r="C210" t="s">
+        <v>711</v>
       </c>
       <c r="D210" t="s">
-        <v>800</v>
+        <v>710</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="B211" t="s">
-        <v>714</v>
+        <v>757</v>
       </c>
       <c r="C211" t="s">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="D211" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>756</v>
+        <v>674</v>
       </c>
       <c r="B212" t="s">
-        <v>759</v>
-      </c>
-      <c r="C212" t="s">
-        <v>758</v>
+        <v>676</v>
       </c>
       <c r="D212" t="s">
-        <v>757</v>
+        <v>675</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>676</v>
+        <v>624</v>
       </c>
       <c r="B213" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
       <c r="D213" t="s">
-        <v>677</v>
+        <v>625</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>626</v>
+        <v>443</v>
       </c>
       <c r="B214" t="s">
-        <v>628</v>
+        <v>445</v>
       </c>
       <c r="D214" t="s">
-        <v>627</v>
+        <v>444</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>443</v>
+        <v>311</v>
       </c>
       <c r="B215" t="s">
-        <v>445</v>
+        <v>313</v>
       </c>
       <c r="D215" t="s">
-        <v>444</v>
+        <v>312</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="B216" t="s">
-        <v>313</v>
+        <v>180</v>
       </c>
       <c r="D216" t="s">
-        <v>312</v>
+        <v>179</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>180</v>
+        <v>220</v>
+      </c>
+      <c r="C217" t="s">
+        <v>219</v>
       </c>
       <c r="D217" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="B218" t="s">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c r="C218" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="D218" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>137</v>
-      </c>
-      <c r="C219" t="s">
-        <v>136</v>
-      </c>
-      <c r="D219" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="B220" t="s">
-        <v>14</v>
+        <v>192</v>
+      </c>
+      <c r="D220" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="B221" t="s">
-        <v>192</v>
+        <v>485</v>
       </c>
       <c r="D221" t="s">
-        <v>191</v>
+        <v>484</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>483</v>
+        <v>569</v>
       </c>
       <c r="B222" t="s">
-        <v>485</v>
+        <v>572</v>
+      </c>
+      <c r="C222" t="s">
+        <v>571</v>
       </c>
       <c r="D222" t="s">
-        <v>484</v>
+        <v>570</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="B223" t="s">
-        <v>574</v>
-      </c>
-      <c r="C223" t="s">
-        <v>573</v>
-      </c>
-      <c r="D223" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>591</v>
+        <v>34</v>
       </c>
       <c r="B224" t="s">
-        <v>592</v>
+        <v>35</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>34</v>
+        <v>618</v>
       </c>
       <c r="B225" t="s">
-        <v>35</v>
+        <v>620</v>
+      </c>
+      <c r="D225" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>620</v>
+        <v>367</v>
       </c>
       <c r="B226" t="s">
-        <v>622</v>
+        <v>369</v>
       </c>
       <c r="D226" t="s">
-        <v>621</v>
+        <v>368</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>367</v>
+        <v>520</v>
       </c>
       <c r="B227" t="s">
-        <v>369</v>
+        <v>522</v>
       </c>
       <c r="D227" t="s">
-        <v>368</v>
+        <v>521</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
       <c r="B228" t="s">
-        <v>522</v>
-      </c>
-      <c r="D228" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" t="s">
-        <v>451</v>
+      <c r="A229" s="2" t="s">
+        <v>682</v>
       </c>
       <c r="B229" t="s">
-        <v>452</v>
+        <v>685</v>
+      </c>
+      <c r="C229" t="s">
+        <v>684</v>
+      </c>
+      <c r="D229" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>684</v>
+        <v>95</v>
       </c>
       <c r="B230" t="s">
-        <v>687</v>
+        <v>98</v>
       </c>
       <c r="C230" t="s">
-        <v>686</v>
+        <v>97</v>
       </c>
       <c r="D230" t="s">
-        <v>685</v>
+        <v>96</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>95</v>
+        <v>511</v>
       </c>
       <c r="B231" t="s">
-        <v>98</v>
-      </c>
-      <c r="C231" t="s">
-        <v>97</v>
+        <v>513</v>
       </c>
       <c r="D231" t="s">
-        <v>96</v>
+        <v>512</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>511</v>
+        <v>287</v>
       </c>
       <c r="B232" t="s">
-        <v>513</v>
+        <v>290</v>
+      </c>
+      <c r="C232" t="s">
+        <v>289</v>
       </c>
       <c r="D232" t="s">
-        <v>512</v>
+        <v>288</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>287</v>
+        <v>102</v>
       </c>
       <c r="B233" t="s">
-        <v>290</v>
-      </c>
-      <c r="C233" t="s">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="D233" t="s">
-        <v>288</v>
+        <v>103</v>
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" t="s">
-        <v>102</v>
+      <c r="A234" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="B234" t="s">
-        <v>104</v>
+        <v>701</v>
       </c>
       <c r="D234" t="s">
-        <v>103</v>
+        <v>700</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>701</v>
+        <v>300</v>
       </c>
       <c r="B235" t="s">
-        <v>703</v>
+        <v>302</v>
       </c>
       <c r="D235" t="s">
-        <v>702</v>
+        <v>301</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="B236" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="D236" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>251</v>
+        <v>566</v>
       </c>
       <c r="B237" t="s">
-        <v>253</v>
+        <v>568</v>
       </c>
       <c r="D237" t="s">
-        <v>252</v>
+        <v>567</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>568</v>
+        <v>278</v>
       </c>
       <c r="B238" t="s">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="D238" t="s">
-        <v>569</v>
+        <v>279</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="B239" t="s">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="D239" t="s">
-        <v>279</v>
+        <v>349</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>348</v>
+        <v>616</v>
       </c>
       <c r="B240" t="s">
-        <v>350</v>
-      </c>
-      <c r="D240" t="s">
-        <v>349</v>
+        <v>617</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>618</v>
+        <v>381</v>
       </c>
       <c r="B241" t="s">
-        <v>619</v>
+        <v>383</v>
+      </c>
+      <c r="D241" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>381</v>
+        <v>57</v>
       </c>
       <c r="B242" t="s">
-        <v>383</v>
+        <v>60</v>
+      </c>
+      <c r="C242" t="s">
+        <v>59</v>
       </c>
       <c r="D242" t="s">
-        <v>382</v>
+        <v>58</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" t="s">
-        <v>57</v>
+      <c r="A243" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B243" t="s">
-        <v>60</v>
-      </c>
-      <c r="C243" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="D243" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>163</v>
+        <v>546</v>
       </c>
       <c r="B244" t="s">
-        <v>165</v>
+        <v>548</v>
       </c>
       <c r="D244" t="s">
-        <v>164</v>
+        <v>547</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>548</v>
+        <v>393</v>
       </c>
       <c r="B245" t="s">
-        <v>550</v>
+        <v>395</v>
       </c>
       <c r="D245" t="s">
-        <v>549</v>
+        <v>394</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>393</v>
+        <v>201</v>
       </c>
       <c r="B246" t="s">
-        <v>395</v>
+        <v>203</v>
       </c>
       <c r="D246" t="s">
-        <v>394</v>
+        <v>202</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>201</v>
+        <v>384</v>
       </c>
       <c r="B247" t="s">
-        <v>203</v>
+        <v>386</v>
       </c>
       <c r="D247" t="s">
-        <v>202</v>
+        <v>385</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>384</v>
+        <v>68</v>
       </c>
       <c r="B248" t="s">
-        <v>386</v>
+        <v>71</v>
+      </c>
+      <c r="C248" t="s">
+        <v>70</v>
       </c>
       <c r="D248" t="s">
-        <v>385</v>
+        <v>69</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>68</v>
+        <v>603</v>
       </c>
       <c r="B249" t="s">
-        <v>71</v>
-      </c>
-      <c r="C249" t="s">
-        <v>70</v>
+        <v>605</v>
       </c>
       <c r="D249" t="s">
-        <v>69</v>
+        <v>604</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>605</v>
+        <v>480</v>
       </c>
       <c r="B250" t="s">
-        <v>607</v>
+        <v>482</v>
       </c>
       <c r="D250" t="s">
-        <v>606</v>
+        <v>481</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>480</v>
+        <v>61</v>
       </c>
       <c r="B251" t="s">
-        <v>482</v>
+        <v>63</v>
       </c>
       <c r="D251" t="s">
-        <v>481</v>
+        <v>62</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B252" t="s">
-        <v>63</v>
-      </c>
-      <c r="D252" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>44</v>
+        <v>536</v>
       </c>
       <c r="B253" t="s">
-        <v>45</v>
+        <v>539</v>
+      </c>
+      <c r="C253" t="s">
+        <v>538</v>
+      </c>
+      <c r="D253" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>538</v>
+        <v>800</v>
       </c>
       <c r="B254" t="s">
-        <v>541</v>
+        <v>803</v>
       </c>
       <c r="C254" t="s">
-        <v>540</v>
+        <v>802</v>
       </c>
       <c r="D254" t="s">
-        <v>539</v>
+        <v>801</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>836</v>
+        <v>461</v>
       </c>
       <c r="B255" t="s">
-        <v>835</v>
+        <v>462</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" t="s">
-        <v>802</v>
+      <c r="A256" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="B256" t="s">
-        <v>805</v>
+        <v>380</v>
       </c>
       <c r="C256" t="s">
-        <v>804</v>
+        <v>379</v>
       </c>
       <c r="D256" t="s">
-        <v>803</v>
+        <v>378</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" t="s">
-        <v>461</v>
+      <c r="A257" s="2" t="s">
+        <v>670</v>
       </c>
       <c r="B257" t="s">
-        <v>462</v>
+        <v>673</v>
+      </c>
+      <c r="C257" t="s">
+        <v>672</v>
+      </c>
+      <c r="D257" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>377</v>
+        <v>499</v>
       </c>
       <c r="B258" t="s">
-        <v>380</v>
-      </c>
-      <c r="C258" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="D258" t="s">
-        <v>378</v>
+        <v>500</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>672</v>
+        <v>531</v>
       </c>
       <c r="B259" t="s">
-        <v>675</v>
-      </c>
-      <c r="C259" t="s">
-        <v>674</v>
+        <v>533</v>
       </c>
       <c r="D259" t="s">
-        <v>673</v>
+        <v>532</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>499</v>
+        <v>31</v>
       </c>
       <c r="B260" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="D260" t="s">
-        <v>500</v>
+        <v>32</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>531</v>
+        <v>49</v>
       </c>
       <c r="B261" t="s">
-        <v>533</v>
-      </c>
-      <c r="D261" t="s">
-        <v>532</v>
+        <v>50</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="B262" t="s">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="D262" t="s">
-        <v>32</v>
+        <v>282</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="B263" t="s">
-        <v>50</v>
+        <v>122</v>
+      </c>
+      <c r="C263" t="s">
+        <v>121</v>
+      </c>
+      <c r="D263" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>281</v>
+        <v>749</v>
       </c>
       <c r="B264" t="s">
-        <v>283</v>
+        <v>751</v>
       </c>
       <c r="D264" t="s">
-        <v>282</v>
+        <v>750</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>119</v>
+        <v>317</v>
       </c>
       <c r="B265" t="s">
-        <v>122</v>
+        <v>320</v>
       </c>
       <c r="C265" t="s">
-        <v>121</v>
+        <v>319</v>
       </c>
       <c r="D265" t="s">
-        <v>120</v>
+        <v>318</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>751</v>
+        <v>437</v>
       </c>
       <c r="B266" t="s">
-        <v>753</v>
+        <v>439</v>
       </c>
       <c r="D266" t="s">
-        <v>752</v>
+        <v>438</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="B267" t="s">
-        <v>320</v>
-      </c>
-      <c r="C267" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="D267" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>437</v>
+        <v>264</v>
       </c>
       <c r="B268" t="s">
-        <v>439</v>
+        <v>266</v>
       </c>
       <c r="D268" t="s">
-        <v>438</v>
+        <v>265</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B269" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D269" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="B270" t="s">
-        <v>266</v>
+        <v>43</v>
       </c>
       <c r="D270" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>351</v>
+        <v>735</v>
       </c>
       <c r="B271" t="s">
-        <v>353</v>
+        <v>737</v>
       </c>
       <c r="D271" t="s">
-        <v>352</v>
+        <v>736</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>41</v>
+        <v>573</v>
       </c>
       <c r="B272" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="D272" t="s">
-        <v>42</v>
+        <v>574</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="B273" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="D273" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>575</v>
+        <v>15</v>
       </c>
       <c r="B274" t="s">
-        <v>577</v>
-      </c>
-      <c r="D274" t="s">
-        <v>576</v>
+        <v>16</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>715</v>
+        <v>196</v>
       </c>
       <c r="B275" t="s">
-        <v>717</v>
+        <v>198</v>
       </c>
       <c r="D275" t="s">
-        <v>716</v>
+        <v>197</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B276" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="B277" t="s">
-        <v>198</v>
-      </c>
-      <c r="D277" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>19</v>
+        <v>831</v>
       </c>
       <c r="B278" t="s">
-        <v>20</v>
+        <v>830</v>
+      </c>
+      <c r="D278" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="B279" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" t="s">
-        <v>833</v>
-      </c>
-      <c r="B280" t="s">
-        <v>832</v>
-      </c>
-      <c r="D280" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" t="s">
-        <v>141</v>
-      </c>
-      <c r="B281" t="s">
         <v>143</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D279" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6462,5 +6433,6 @@
     <sortCondition ref="A2:A281"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>